--- a/biology/Zoologie/Copuetta/Copuetta.xlsx
+++ b/biology/Zoologie/Copuetta/Copuetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copuetta est un genre d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copuetta est un genre d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 17.5, 08/10/2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 17.5, 08/10/2016) :
 Copuetta comorica Haddad, 2013
 Copuetta erecta Haddad, 2013
 Copuetta kakamega Haddad, 2013
@@ -585,7 +601,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Haddad, 2013  : Taxonomic notes on the spider genus Messapus Simon, 1898 (Araneae, Corinnidae), with the description of the new genera Copuetta and Wasaka and the first cladistic analysis of Afrotropical Castianeirinae. Zootaxa, no 3688, p. 1-79.</t>
         </is>
